--- a/leedcode刷题计划.xlsx
+++ b/leedcode刷题计划.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="11055"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="1" r:id="rId1"/>
+    <sheet name="八股文计划" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>数组</t>
   </si>
@@ -158,6 +159,9 @@
     <t>day31</t>
   </si>
   <si>
+    <t>动态规划</t>
+  </si>
+  <si>
     <t>day32</t>
   </si>
   <si>
@@ -170,9 +174,6 @@
     <t>看第2遍又问题：2</t>
   </si>
   <si>
-    <t>动态规划</t>
-  </si>
-  <si>
     <t>day35</t>
   </si>
   <si>
@@ -203,24 +204,39 @@
     <t>day43</t>
   </si>
   <si>
+    <t>看第2遍有问题：1,3</t>
+  </si>
+  <si>
     <t>day44</t>
   </si>
   <si>
     <t>day45</t>
   </si>
   <si>
+    <t>看第2遍有问题：2,3</t>
+  </si>
+  <si>
     <t>day46</t>
   </si>
   <si>
+    <t>看第2遍有问题：1,2</t>
+  </si>
+  <si>
     <t>day47</t>
   </si>
   <si>
+    <t>单调栈</t>
+  </si>
+  <si>
     <t>day48</t>
   </si>
   <si>
     <t>day49</t>
   </si>
   <si>
+    <t>图</t>
+  </si>
+  <si>
     <t>day50</t>
   </si>
   <si>
@@ -228,6 +244,30 @@
   </si>
   <si>
     <t>day52</t>
+  </si>
+  <si>
+    <t>day53</t>
+  </si>
+  <si>
+    <t>day54</t>
+  </si>
+  <si>
+    <t>day55</t>
+  </si>
+  <si>
+    <t>day56</t>
+  </si>
+  <si>
+    <t>1_大模型面试八股文</t>
+  </si>
+  <si>
+    <t>2_rag 面试八股文</t>
+  </si>
+  <si>
+    <t>3_deepseek r1</t>
+  </si>
+  <si>
+    <t>4_transformer</t>
   </si>
 </sst>
 </file>
@@ -240,8 +280,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -755,137 +803,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,8 +970,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1458,10 +1515,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1651,7 +1708,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1662,7 +1719,7 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1671,51 +1728,54 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="B32" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14"/>
       <c r="B33" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="14"/>
       <c r="B34" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
+      <c r="A35" s="14"/>
       <c r="B35" s="11" t="s">
         <v>48</v>
       </c>
@@ -1723,93 +1783,152 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:3">
+      <c r="A36" s="14"/>
       <c r="B36" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="14"/>
       <c r="B37" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14"/>
       <c r="B38" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2">
+      <c r="A39" s="14"/>
       <c r="B39" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="11" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:2">
+      <c r="A41" s="14"/>
       <c r="B41" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:2">
+      <c r="A42" s="14"/>
       <c r="B42" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="1:3">
+      <c r="A43" s="14"/>
       <c r="B43" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="14"/>
       <c r="B44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:3">
+      <c r="A45" s="14"/>
       <c r="B45" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="14"/>
       <c r="B46" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
+        <v>62</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="B48" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="14"/>
       <c r="B49" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="B50" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="14"/>
       <c r="B51" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="14"/>
       <c r="B52" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
@@ -1818,9 +1937,334 @@
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A56"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="26.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="28.4159292035398" customWidth="1"/>
+    <col min="4" max="4" width="28.283185840708" customWidth="1"/>
+    <col min="5" max="5" width="25.9557522123894" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/leedcode刷题计划.xlsx
+++ b/leedcode刷题计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>数组</t>
   </si>
@@ -189,9 +189,15 @@
     <t>day38</t>
   </si>
   <si>
+    <t>看2遍又问题：3</t>
+  </si>
+  <si>
     <t>day39</t>
   </si>
   <si>
+    <t>看3遍又问题：3</t>
+  </si>
+  <si>
     <t>day40</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>day42</t>
   </si>
   <si>
+    <t>看第2遍有问题：1，2</t>
+  </si>
+  <si>
     <t>day43</t>
   </si>
   <si>
@@ -258,6 +267,12 @@
     <t>day56</t>
   </si>
   <si>
+    <t>day57</t>
+  </si>
+  <si>
+    <t>day58</t>
+  </si>
+  <si>
     <t>1_大模型面试八股文</t>
   </si>
   <si>
@@ -268,6 +283,18 @@
   </si>
   <si>
     <t>4_transformer</t>
+  </si>
+  <si>
+    <t>第i天</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>看了n页</t>
+  </si>
+  <si>
+    <t>rag 2+ transformer 1.5+ R1 1+ 大模型2=5</t>
   </si>
 </sst>
 </file>
@@ -441,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +842,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,16 +866,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -851,90 +884,102 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -943,27 +988,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,11 +1015,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1515,20 +1554,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="24.9646017699115" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.9646017699115" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.7522123893805" customWidth="1"/>
     <col min="7" max="7" width="17.6637168141593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1539,16 +1579,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1556,7 +1596,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1567,25 +1607,25 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1593,16 +1633,16 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1610,13 +1650,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1624,307 +1664,326 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="11" t="s">
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="11" t="s">
+      <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="12" t="s">
-        <v>54</v>
+      <c r="A40" s="13"/>
+      <c r="B40" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="11" t="s">
-        <v>56</v>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>58</v>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>63</v>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="12" t="s">
-        <v>64</v>
+      <c r="A47" s="17"/>
+      <c r="B47" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>66</v>
+      <c r="A48" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="11" t="s">
-        <v>67</v>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>69</v>
+      <c r="A50" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11" t="s">
-        <v>70</v>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="11" t="s">
-        <v>71</v>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="11" t="s">
-        <v>72</v>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="11" t="s">
-        <v>73</v>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="11" t="s">
-        <v>74</v>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="11" t="s">
-        <v>75</v>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1950,73 +2009,110 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="26.5575221238938" customWidth="1"/>
     <col min="3" max="3" width="28.4159292035398" customWidth="1"/>
     <col min="4" max="4" width="28.283185840708" customWidth="1"/>
     <col min="5" max="5" width="25.9557522123894" customWidth="1"/>
+    <col min="8" max="8" width="9.53097345132743"/>
+    <col min="9" max="9" width="48.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9.22</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="3">
+        <v>9.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
@@ -2113,20 +2209,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
@@ -2153,10 +2251,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
@@ -2258,10 +2357,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/leedcode刷题计划.xlsx
+++ b/leedcode刷题计划.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="22500" windowHeight="11055"/>
   </bookViews>
   <sheets>
-    <sheet name="计划" sheetId="1" r:id="rId1"/>
+    <sheet name="leedcode计划" sheetId="1" r:id="rId1"/>
     <sheet name="八股文计划" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>数组</t>
   </si>
@@ -96,15 +96,24 @@
     <t>day14</t>
   </si>
   <si>
+    <t>看2遍又问题：2，4</t>
+  </si>
+  <si>
     <t>day15</t>
   </si>
   <si>
+    <t>看2遍有问题：1</t>
+  </si>
+  <si>
     <t>day16</t>
   </si>
   <si>
     <t>day17</t>
   </si>
   <si>
+    <t>看2遍有问题：4</t>
+  </si>
+  <si>
     <t>day18</t>
   </si>
   <si>
@@ -180,9 +189,15 @@
     <t>看第2遍又问题：3</t>
   </si>
   <si>
+    <t>0-1背包，一维背包倒序</t>
+  </si>
+  <si>
     <t>day36</t>
   </si>
   <si>
+    <t>看3遍有问题：2</t>
+  </si>
+  <si>
     <t>day37</t>
   </si>
   <si>
@@ -294,7 +309,13 @@
     <t>看了n页</t>
   </si>
   <si>
+    <t>复习1遍</t>
+  </si>
+  <si>
     <t>rag 2+ transformer 1.5+ R1 1+ 大模型2=5</t>
+  </si>
+  <si>
+    <t>rag 1+   R1 1</t>
   </si>
 </sst>
 </file>
@@ -307,7 +328,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +340,13 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -468,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +517,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -502,12 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,55 +870,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,74 +930,77 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +1014,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -988,24 +1028,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,8 +1055,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1556,19 +1599,19 @@
   <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="24.9646017699115" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.9646017699115" style="7" customWidth="1"/>
     <col min="4" max="4" width="27.7522123893805" customWidth="1"/>
     <col min="7" max="7" width="17.6637168141593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1579,16 +1622,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1596,7 +1639,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1607,25 +1650,25 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1633,16 +1676,16 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1650,13 +1693,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1664,326 +1707,344 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
-        <v>25</v>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
-        <v>26</v>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
-        <v>27</v>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
-        <v>28</v>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>30</v>
+      <c r="A22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
-        <v>31</v>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
-        <v>32</v>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>34</v>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15" t="s">
-        <v>35</v>
+      <c r="A26" s="15"/>
+      <c r="B26" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>38</v>
+      <c r="A27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>44</v>
+      <c r="A32" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
-        <v>45</v>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+      <c r="C34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="16"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="16"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
-        <v>54</v>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15" t="s">
-        <v>56</v>
+      <c r="A40" s="15"/>
+      <c r="B40" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
-        <v>57</v>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>59</v>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>61</v>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>61</v>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>64</v>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>66</v>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="15" t="s">
-        <v>67</v>
+      <c r="A47" s="20"/>
+      <c r="B47" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>69</v>
+      <c r="A48" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14" t="s">
-        <v>70</v>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>72</v>
+      <c r="A50" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14" t="s">
-        <v>73</v>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14" t="s">
-        <v>74</v>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14" t="s">
-        <v>75</v>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14" t="s">
-        <v>76</v>
+      <c r="A54" s="15"/>
+      <c r="B54" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14" t="s">
-        <v>77</v>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14" t="s">
-        <v>78</v>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="14" t="s">
-        <v>79</v>
+      <c r="B57" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="14" t="s">
-        <v>80</v>
+      <c r="B58" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2009,10 +2070,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -2025,35 +2086,40 @@
     <col min="9" max="9" width="48.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="G2">
         <v>1</v>
@@ -2061,38 +2127,76 @@
       <c r="H2" s="2">
         <v>9.22</v>
       </c>
-      <c r="I2">
+      <c r="I2"/>
+      <c r="J2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1"/>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>9.23</v>
+      </c>
       <c r="I3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>9.24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>9.25</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
@@ -2114,25 +2218,29 @@
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
@@ -2209,22 +2317,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
@@ -2255,7 +2363,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
@@ -2361,7 +2469,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
